--- a/Datos/CUENTA.xlsx
+++ b/Datos/CUENTA.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\Projecto_ABD\ABD\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ABD\ABD\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56D4A39E-DB9D-4BA4-A20D-F5BE99EB2112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{5BE0DFA3-4FD4-4248-B1C5-BD1EE959A2C7}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11388"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,9 +48,6 @@
     <t>ES32 1226 347 77987</t>
   </si>
   <si>
-    <t>ES32 5829 354  1000</t>
-  </si>
-  <si>
     <t>ES32 6784 345 0000</t>
   </si>
   <si>
@@ -62,12 +58,15 @@
   </si>
   <si>
     <t>HHGDERFA</t>
+  </si>
+  <si>
+    <t>ES32 5829 354 1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,19 +411,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AA31BC-D93F-4948-AF2D-3BC0FBCDCC75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,35 +431,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
